--- a/DominionSolo/Assets/Editor/MasterData/CardMaster.xlsx
+++ b/DominionSolo/Assets/Editor/MasterData/CardMaster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s2kw/workspace/repo/DominionSolo/DominionSolo/Assets/Editor/MasterData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AA49F7-DD48-DD49-A41B-9AA750AE0F6B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FD4180-1092-B34B-80C1-EA920F6636F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7140" yWindow="3860" windowWidth="22020" windowHeight="15540" xr2:uid="{EC5FCEEF-653B-264B-81F9-57DF28308695}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>victoryPoint</t>
+  </si>
+  <si>
+    <t>陰謀</t>
+  </si>
+  <si>
+    <t>サンプル２</t>
+  </si>
+  <si>
+    <t>ああああ</t>
   </si>
 </sst>
 </file>
@@ -448,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479A395B-DA1F-1B47-A84F-7AD404EC6ABC}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,6 +554,9 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
       <c r="F5">
         <v>0</v>
       </c>
@@ -568,8 +580,116 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>22</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
